--- a/workbook_sample.xlsx
+++ b/workbook_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">کد ملی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ماه</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">ریاضی</t>
   </si>
@@ -38,15 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">عربی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آبان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مهر</t>
   </si>
 </sst>
 </file>
@@ -157,16 +139,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,90 +163,58 @@
       <c r="D1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2580974555</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>2580978566</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2590258545</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+        <v>6530107762</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2580978566</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>5690101343</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>20</v>
       </c>
     </row>
